--- a/patient_data/patient_68.xlsx
+++ b/patient_data/patient_68.xlsx
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1324,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
